--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T15:41:40-03:00</t>
+    <t>2024-01-08T08:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T08:41:20-03:00</t>
+    <t>2024-02-15T09:17:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T09:17:26-03:00</t>
+    <t>2024-02-15T14:15:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$31</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="241">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:15:38-03:00</t>
+    <t>2024-02-19T16:06:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,10 +337,29 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Address.extension:Geolocalizacion</t>
+  </si>
+  <si>
+    <t>Geolocalizacion</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {geolocation}
+</t>
+  </si>
+  <si>
+    <t>The absolute geographic location</t>
+  </si>
+  <si>
+    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
+  </si>
+  <si>
+    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
+  </si>
+  <si>
     <t>Address.use</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -1062,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1073,7 +1092,7 @@
   <cols>
     <col min="1" max="1" width="33.98828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.87109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="11.23828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1577,9 +1596,11 @@
         <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="D5" t="s" s="2">
         <v>78</v>
       </c>
@@ -1591,29 +1612,27 @@
         <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O5" t="s" s="2">
         <v>110</v>
       </c>
+      <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>78</v>
       </c>
@@ -1625,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
         <v>78</v>
@@ -1637,13 +1656,13 @@
         <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>78</v>
@@ -1661,28 +1680,28 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>78</v>
@@ -1690,10 +1709,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1707,27 +1726,29 @@
         <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O6" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="P6" t="s" s="2">
         <v>78</v>
       </c>
@@ -1739,7 +1760,7 @@
         <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="U6" t="s" s="2">
         <v>78</v>
@@ -1751,13 +1772,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -1775,7 +1796,7 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -1790,24 +1811,24 @@
         <v>85</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1827,23 +1848,21 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>78</v>
       </c>
@@ -1855,7 +1874,7 @@
         <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="U7" t="s" s="2">
         <v>78</v>
@@ -1867,13 +1886,13 @@
         <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>78</v>
@@ -1891,7 +1910,7 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -1906,24 +1925,24 @@
         <v>85</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1937,25 +1956,29 @@
         <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O8" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>78</v>
       </c>
@@ -1967,7 +1990,7 @@
         <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>78</v>
@@ -2003,13 +2026,13 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
@@ -2018,28 +2041,28 @@
         <v>85</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL8" t="s" s="2">
+      <c r="AM8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN8" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>143</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2049,22 +2072,22 @@
         <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2079,7 +2102,7 @@
         <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U9" t="s" s="2">
         <v>78</v>
@@ -2115,13 +2138,13 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
@@ -2130,28 +2153,28 @@
         <v>85</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AN9" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2161,22 +2184,22 @@
         <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2191,7 +2214,7 @@
         <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="U10" t="s" s="2">
         <v>78</v>
@@ -2227,7 +2250,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2239,27 +2262,27 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2267,10 +2290,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2282,13 +2305,13 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2327,29 +2350,31 @@
         <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2366,14 +2391,12 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2382,10 +2405,10 @@
         <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>
@@ -2394,13 +2417,13 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2439,16 +2462,14 @@
         <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>102</v>
@@ -2460,7 +2481,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>103</v>
@@ -2480,24 +2501,26 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>78</v>
@@ -2506,13 +2529,13 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2536,7 +2559,7 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
         <v>78</v>
@@ -2563,19 +2586,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -2592,14 +2615,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2609,13 +2632,13 @@
         <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>90</v>
@@ -2626,9 +2649,7 @@
       <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -2641,44 +2662,44 @@
         <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
@@ -2689,13 +2710,13 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -2706,14 +2727,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2723,24 +2744,26 @@
         <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -2753,7 +2776,7 @@
         <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>78</v>
@@ -2789,7 +2812,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2801,13 +2824,13 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -2818,10 +2841,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2829,10 +2852,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -2844,13 +2867,13 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2889,29 +2912,31 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -2928,14 +2953,12 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
@@ -2944,10 +2967,10 @@
         <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
@@ -2956,13 +2979,13 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3001,16 +3024,14 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>102</v>
@@ -3022,7 +3043,7 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>103</v>
@@ -3042,24 +3063,26 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
@@ -3068,13 +3091,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3098,7 +3121,7 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
         <v>78</v>
@@ -3125,19 +3148,19 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -3154,14 +3177,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3171,22 +3194,22 @@
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3210,7 +3233,7 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>78</v>
@@ -3237,7 +3260,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3249,31 +3272,31 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3283,22 +3306,22 @@
         <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3349,7 +3372,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3361,27 +3384,27 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3389,10 +3412,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3404,13 +3427,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3449,29 +3472,31 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -3488,14 +3513,12 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3504,10 +3527,10 @@
         <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
@@ -3516,13 +3539,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3561,16 +3584,14 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>102</v>
@@ -3582,7 +3603,7 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>103</v>
@@ -3602,24 +3623,26 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
@@ -3628,13 +3651,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3658,7 +3681,7 @@
         <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
         <v>78</v>
@@ -3685,19 +3708,19 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -3714,14 +3737,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3737,16 +3760,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3761,7 +3784,7 @@
         <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>78</v>
@@ -3770,7 +3793,7 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>78</v>
@@ -3797,7 +3820,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -3809,31 +3832,31 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3843,26 +3866,24 @@
         <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -3875,7 +3896,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -3911,7 +3932,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -3926,24 +3947,24 @@
         <v>85</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3957,24 +3978,26 @@
         <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4023,7 +4046,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4035,27 +4058,27 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4063,10 +4086,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4078,13 +4101,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4123,29 +4146,31 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -4162,14 +4187,12 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4178,10 +4201,10 @@
         <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>78</v>
@@ -4190,13 +4213,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4235,16 +4258,14 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>102</v>
@@ -4256,7 +4277,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>103</v>
@@ -4276,24 +4297,26 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>78</v>
@@ -4302,13 +4325,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4332,7 +4355,7 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
         <v>78</v>
@@ -4359,19 +4382,19 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -4388,10 +4411,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4411,21 +4434,19 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -4437,7 +4458,7 @@
         <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>78</v>
@@ -4446,7 +4467,7 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
         <v>78</v>
@@ -4473,7 +4494,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4485,23 +4506,137 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AK31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN30">
+  <autoFilter ref="A1:AN31">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4511,7 +4646,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-05-08T11:32:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1090,45 +1090,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.87109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="11.23828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.90625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.93359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.01171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.6171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.6796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="58.12109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="58.01953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="38.5234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.37109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.75390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.02734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.57421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.1171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="24.66015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.28125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.7109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="24.1796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:32:37-04:00</t>
+    <t>2024-05-08T11:46:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-03-04T15:29:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-13T17:23:26-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-17T14:21:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:21:27-04:00</t>
+    <t>2024-06-21T18:30:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -722,10 +722,10 @@
 </t>
   </si>
   <si>
-    <t>Codigo de Identificación de países</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de paises de origen</t>
+    <t>Codigo de Paises</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye códigos de paises</t>
   </si>
   <si>
     <t>Address.country.value</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:30:18-04:00</t>
+    <t>2024-06-23T21:41:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-23T21:41:08-04:00</t>
+    <t>2024-06-24T20:56:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T20:56:59-04:00</t>
+    <t>2024-06-25T09:03:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:03:09-04:00</t>
+    <t>2024-06-25T09:29:41-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:29:41-04:00</t>
+    <t>2024-06-26T18:33:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T18:33:17-04:00</t>
+    <t>2024-06-27T08:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T08:59:20-04:00</t>
+    <t>2024-07-18T16:07:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T16:07:51-04:00</t>
+    <t>2024-07-26T10:55:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T10:55:50-04:00</t>
+    <t>2024-07-29T12:24:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:24:08-04:00</t>
+    <t>2024-08-05T12:01:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T12:01:08-04:00</t>
+    <t>2024-08-06T12:35:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:35:59-04:00</t>
+    <t>2024-08-06T16:31:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T16:31:07-04:00</t>
+    <t>2024-08-07T09:55:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T09:55:47-04:00</t>
+    <t>2024-08-07T14:23:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T14:23:12-04:00</t>
+    <t>2024-08-08T12:45:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cl-address.xlsx
+++ b/output/StructureDefinition-cl-address.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T12:45:25-04:00</t>
+    <t>2024-08-13T08:05:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
